--- a/anomaly_detection/classical/results_HDFS.xlsx
+++ b/anomaly_detection/classical/results_HDFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Documents\Universite\10. Automne 2021\LOG6309E\log6309-mining-tools\anomaly_detection\classical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB293959-5F04-47BC-A19F-E143078F8A3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97273FA-3ECD-43EA-8E77-9D59A2A0C41F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B72B622F-033E-40C7-81DD-91D67F42FF48}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,54 @@
   </si>
   <si>
     <t>.npz dataset</t>
+  </si>
+  <si>
+    <t>BGL</t>
+  </si>
+  <si>
+    <t>HDFS</t>
+  </si>
+  <si>
+    <t>Parsed 500k lines</t>
+  </si>
+  <si>
+    <t>Window size: 60 seconds</t>
+  </si>
+  <si>
+    <t>Fixed window (step = 60 seconds)</t>
+  </si>
+  <si>
+    <t>Window size: 6h</t>
+  </si>
+  <si>
+    <t>step: 5m</t>
+  </si>
+  <si>
+    <t>step: 30m</t>
+  </si>
+  <si>
+    <t>step: 1h</t>
+  </si>
+  <si>
+    <t>2848 instances</t>
+  </si>
+  <si>
+    <t>step: 3h</t>
+  </si>
+  <si>
+    <t>step: 6h</t>
+  </si>
+  <si>
+    <t>EXPERIMENT: VARIABLE WINDOW SIZE, FIXED WINDOW STEP (1h)</t>
+  </si>
+  <si>
+    <t>EXPERIMENT: FIXED WINDOW SIZE (6h), VARIABLE WINDOW STEP</t>
+  </si>
+  <si>
+    <t>Window size: 1h</t>
+  </si>
+  <si>
+    <t>Window size: 3h</t>
   </si>
 </sst>
 </file>
@@ -5758,10 +5806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C84CED-4DDF-4899-AFF7-3CB9A9C2050D}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5771,6 +5819,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
@@ -5966,12 +6017,2110 @@
         <v>16</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.879</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G57" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2">
+        <v>7911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.104</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H71" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="3"/>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="3"/>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="3"/>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="3"/>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="3"/>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="3"/>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="3"/>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="3"/>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="3"/>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="3"/>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="3"/>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="3"/>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="3"/>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="3"/>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.872</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="3"/>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0.872</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="3"/>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="3"/>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="3"/>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="3"/>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="3"/>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="E155" s="2">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="3"/>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="3"/>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="2">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" s="3"/>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" s="3"/>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E169" s="2">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" s="3"/>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" s="3"/>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="2">
+        <v>1</v>
+      </c>
+      <c r="D181" s="2">
+        <v>1</v>
+      </c>
+      <c r="E181" s="2">
+        <v>1</v>
+      </c>
+      <c r="F181" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G181" s="2">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="3"/>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1</v>
+      </c>
+      <c r="F182" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="3"/>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F183" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="3"/>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="3"/>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="2">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="48">
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A38:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
